--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:49:17+00:00</t>
+    <t>2025-10-02T16:58:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t>commentaire (Professionnel) : Commentaire qui permet à la structure de donner des informations complémentaires</t>
+    <t>commentaire (PersonnePhysique) : Commentaire qui permet à la structure de donner des informations complémentaires</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour décrire le commentaire qui permet à la structure de donner des informations complémentaires</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T16:58:05+00:00</t>
+    <t>2025-10-14T14:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:21:03+00:00</t>
+    <t>2025-10-14T14:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:30:30+00:00</t>
+    <t>2025-10-14T14:38:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -668,22 +668,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:ror-practitioner-comment</t>
-  </si>
-  <si>
-    <t>ror-practitioner-comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner-comment}
-</t>
-  </si>
-  <si>
-    <t>commentaire (PersonnePhysique) : Commentaire qui permet à la structure de donner des informations complémentaires</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour décrire le commentaire qui permet à la structure de donner des informations complémentaires</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -1967,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4246,41 +4230,43 @@
         <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4316,19 +4302,19 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4349,7 +4335,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4367,38 +4353,36 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4435,19 +4419,19 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4459,30 +4443,30 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4490,33 +4474,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4564,53 +4546,53 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4622,15 +4604,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4667,31 +4651,31 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4700,7 +4684,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4711,44 +4695,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4772,52 +4758,52 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4828,10 +4814,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4848,25 +4834,25 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4891,13 +4877,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4915,7 +4901,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4933,10 +4919,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4947,10 +4933,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4973,19 +4959,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4995,10 +4981,10 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -5010,13 +4996,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5034,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5052,13 +5038,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -5066,10 +5052,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5092,20 +5078,18 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,10 +5098,10 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -5153,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5171,13 +5155,13 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -5185,10 +5169,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5211,16 +5195,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5234,7 +5218,7 @@
         <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>77</v>
@@ -5270,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5282,19 +5266,19 @@
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5302,10 +5286,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5328,16 +5312,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5387,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5399,19 +5383,19 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5419,10 +5403,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5445,22 +5429,26 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5516,30 +5504,30 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5550,7 +5538,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5562,76 +5550,74 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>102</v>
@@ -5643,24 +5629,24 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5671,7 +5657,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5680,23 +5666,19 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5744,31 +5726,31 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -5776,21 +5758,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5802,15 +5784,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5847,31 +5831,31 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5880,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5891,44 +5875,46 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5952,55 +5938,55 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>77</v>
@@ -6008,10 +5994,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6028,25 +6014,25 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6071,13 +6057,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6095,7 +6081,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6113,13 +6099,13 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>77</v>
@@ -6127,14 +6113,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6156,17 +6142,15 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6214,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6232,13 +6216,13 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -6246,21 +6230,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6275,13 +6259,13 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6331,13 +6315,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6349,13 +6333,13 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6363,24 +6347,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>77</v>
@@ -6392,13 +6376,13 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6424,13 +6408,11 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6430,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6463,16 +6445,16 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -6480,10 +6462,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6494,10 +6476,10 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>77</v>
@@ -6509,13 +6491,13 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6541,11 +6523,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6563,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6578,16 +6562,16 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6595,10 +6579,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6609,7 +6593,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6621,18 +6605,20 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6680,31 +6666,31 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>77</v>
@@ -6712,10 +6698,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6726,10 +6712,10 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>77</v>
@@ -6738,19 +6724,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6799,31 +6785,31 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>277</v>
+        <v>372</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>77</v>
@@ -6831,10 +6817,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6845,32 +6831,28 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6918,31 +6900,31 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>110</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>77</v>
@@ -6950,10 +6932,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6961,10 +6943,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6976,13 +6958,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7021,31 +7003,31 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -7054,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7065,39 +7047,41 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7136,16 +7120,16 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>121</v>
@@ -7183,7 +7167,7 @@
         <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>386</v>
@@ -7193,7 +7177,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7300,7 +7284,7 @@
         <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>391</v>
@@ -7310,7 +7294,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7417,40 +7401,40 @@
         <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7475,13 +7459,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7499,31 +7483,31 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>77</v>
@@ -7531,10 +7515,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7542,13 +7526,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>77</v>
@@ -7557,18 +7541,20 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7592,13 +7578,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7602,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7625,22 +7611,22 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>77</v>
@@ -7648,10 +7634,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7659,34 +7645,34 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7711,13 +7697,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7735,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7750,16 +7736,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>77</v>
@@ -7767,10 +7753,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7787,26 +7773,24 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7830,13 +7814,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7854,7 +7838,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7872,13 +7856,13 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>427</v>
+        <v>111</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>77</v>
@@ -7886,10 +7870,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7912,7 +7896,7 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>431</v>
@@ -7921,7 +7905,7 @@
         <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>433</v>
+        <v>270</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7971,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7983,19 +7967,19 @@
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>77</v>
@@ -8003,10 +7987,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8017,7 +8001,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -8029,7 +8013,7 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>436</v>
@@ -8038,9 +8022,11 @@
         <v>437</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8088,31 +8074,31 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>77</v>
@@ -8120,10 +8106,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8134,7 +8120,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -8146,19 +8132,19 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8183,13 +8169,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8207,13 +8193,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>102</v>
@@ -8225,13 +8211,13 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>77</v>
@@ -8239,10 +8225,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8265,19 +8251,17 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8302,31 +8286,31 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8344,13 +8328,13 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8358,10 +8342,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8372,7 +8356,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8381,20 +8365,22 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8443,31 +8429,31 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>466</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>77</v>
@@ -8475,10 +8461,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8501,20 +8487,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8562,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8574,19 +8556,19 @@
         <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8594,10 +8576,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8608,7 +8590,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8620,13 +8602,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>478</v>
+        <v>109</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8677,31 +8659,31 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>480</v>
+        <v>111</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -8709,21 +8691,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8735,15 +8717,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8780,31 +8764,31 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8813,7 +8797,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8824,14 +8808,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>113</v>
+        <v>480</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8844,24 +8828,26 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>115</v>
+        <v>481</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>116</v>
+        <v>482</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8897,19 +8883,19 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8948,7 +8934,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8961,25 +8947,23 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9028,7 +9012,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9040,19 +9024,19 @@
         <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9060,10 +9044,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9071,10 +9055,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9086,18 +9070,18 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9121,13 +9105,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>495</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9145,13 +9129,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
@@ -9163,13 +9147,13 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
@@ -9177,10 +9161,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9188,7 +9172,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9203,18 +9187,20 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9238,13 +9224,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>500</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9262,10 +9248,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>89</v>
@@ -9274,19 +9260,19 @@
         <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9294,10 +9280,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9320,20 +9306,18 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>272</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9381,7 +9365,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9393,19 +9377,19 @@
         <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>77</v>
@@ -9413,10 +9397,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9427,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9439,7 +9423,7 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>513</v>
@@ -9450,7 +9434,9 @@
       <c r="N64" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9474,13 +9460,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9498,157 +9484,38 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AO65" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO65">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9658,7 +9525,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:38:25+00:00</t>
+    <t>2025-10-15T15:37:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
